--- a/連線涂_東京茨城.xlsx
+++ b/連線涂_東京茨城.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TWU代購\東京茨城\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="明細" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>販賣金額</t>
   </si>
@@ -133,6 +129,46 @@
   </si>
   <si>
     <t>米奇圍裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資生堂粉餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mindy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代購＿su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞馬遜_exo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞馬遜_magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞馬遜_愛迪達鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞馬遜_乾洗髮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代購_阿啾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -249,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,27 +508,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="A1:D1048576"/>
       <selection pane="topRight" activeCell="D1" sqref="A1:D1048576"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1048576"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="15" width="9" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
+    <col min="7" max="16" width="9" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.28000000000000003</v>
       </c>
@@ -535,20 +577,29 @@
       <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -572,10 +623,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="2">
+        <v>756</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
@@ -583,10 +640,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B4" s="2">
+        <v>756</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" s="2">
         <v>260</v>
       </c>
@@ -594,46 +657,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="2">
+        <v>756</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="L5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B6" s="2">
+        <v>756</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="2">
         <v>265</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
       </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B7" s="2">
+        <v>756</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="2">
         <v>260</v>
       </c>
       <c r="N7" s="2">
         <v>1</v>
       </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="2">
+        <v>1242</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="2">
         <v>430</v>
       </c>
@@ -641,32 +728,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B9" s="2">
+        <v>239</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1425</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5933</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1760</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4140</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1280</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4663</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1490</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2">
+        <v>458</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
+    <row r="18" spans="6:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="6:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/連線涂_東京茨城.xlsx
+++ b/連線涂_東京茨城.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TWU代購\東京茨城\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="801"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="7515" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="明細" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>販賣金額</t>
   </si>
@@ -44,95 +49,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日幣購買金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日幣總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珮琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日幣總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J-BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹦蹦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史迪奇咬線器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維尼咬線器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lec抹布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小靜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦皮Yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦皮-史迪奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦皮-米奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦皮sullen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦皮-維尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米奇圍裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資生堂粉餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mindy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代購＿su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞馬遜_exo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞馬遜_magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞馬遜_愛迪達鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞馬遜_乾洗髮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代購_阿啾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髮劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百草丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭惠雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅干小包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grace Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私下訂購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU蕾絲邊*2紫點點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>購買金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日幣購買金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日幣總計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珮琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日幣總計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香菸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J-BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹦蹦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史迪奇咬線器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>維尼咬線器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lec抹布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林小靜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦皮Yu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦皮-史迪奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦皮-米奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦皮sullen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦皮-維尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米奇圍裙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資生堂粉餅</t>
+    <t>YiTsen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡丘一番賞G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡丘一番賞E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小艾Less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白上衣黑色外掛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lowry’s farm淡藍色上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯緣子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪肌粹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張純菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拉雄一番賞毛巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胖貓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>540(打7折)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷企鵝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410 8折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦眼鏡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美少女眼藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵包超人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,35 +305,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代購＿su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亞馬遜_exo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亞馬遜_magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亞馬遜_愛迪達鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亞馬遜_乾洗髮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代購_阿啾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
+    <t>諾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,14 +645,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="V20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="A1:D1048576"/>
       <selection pane="topRight" activeCell="D1" sqref="A1:D1048576"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1048576"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -525,24 +662,24 @@
     <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="16" width="9" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
+    <col min="7" max="17" width="9" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
+    <col min="19" max="30" width="9" style="2" customWidth="1"/>
+    <col min="31" max="31" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.28000000000000003</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -551,57 +688,93 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="AG1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -619,132 +792,132 @@
         <f>E2-(D2*$A$1)</f>
         <v>750</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>756</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
         <v>756</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <v>260</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>756</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
         <v>756</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>265</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>756</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>260</v>
       </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>1242</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>430</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>239</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>4200</v>
@@ -752,89 +925,395 @@
       <c r="E10" s="2">
         <v>1425</v>
       </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
         <v>5933</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2">
         <v>1760</v>
       </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
         <v>4140</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>1280</v>
       </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>4663</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>1490</v>
       </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>458</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <v>908</v>
+      </c>
+      <c r="E15" s="2">
+        <v>330</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1180</v>
+      </c>
+      <c r="E16" s="2">
+        <v>490</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>399</v>
+      </c>
+      <c r="E17" s="2">
+        <v>160</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45</v>
+      </c>
+      <c r="U18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2">
+        <v>920</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>490</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1273</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>800</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1458</v>
+      </c>
+      <c r="E22" s="2">
+        <v>534</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2">
+        <v>670</v>
+      </c>
+      <c r="E23" s="2">
+        <v>250</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>670</v>
+      </c>
+      <c r="E24" s="2">
+        <v>250</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2">
+        <v>648</v>
+      </c>
+      <c r="E25" s="2">
+        <v>240</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2">
+        <v>574</v>
+      </c>
+      <c r="E26" s="2">
+        <v>230</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2">
+        <v>648</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>250</v>
+      </c>
+      <c r="U27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2">
+        <v>140</v>
+      </c>
+      <c r="W28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2">
+        <v>190</v>
+      </c>
+      <c r="W29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2">
+        <v>358</v>
+      </c>
+      <c r="E31" s="2">
+        <v>150</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2">
+        <v>613</v>
+      </c>
+      <c r="D32" s="2">
+        <f>B32</f>
+        <v>613</v>
+      </c>
+      <c r="E32" s="2">
+        <v>190</v>
+      </c>
+      <c r="F32" s="2">
+        <f>E32-(D32*$A$1)</f>
+        <v>18.359999999999985</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2">
+        <v>513</v>
+      </c>
+      <c r="D33" s="2">
+        <f>B33</f>
+        <v>513</v>
+      </c>
+      <c r="E33" s="2">
+        <v>190</v>
+      </c>
+      <c r="F33" s="2">
+        <f>E33-(D33*$A$1)</f>
+        <v>46.359999999999985</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="6:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="6:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
+    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/連線涂_東京茨城.xlsx
+++ b/連線涂_東京茨城.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TWU代購\東京茨城\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="7515" tabRatio="801"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="明細" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>販賣金額</t>
   </si>
@@ -173,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>髮劑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>annie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梅干小包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FU蕾絲邊*2紫點點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>購買金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,91 +204,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小艾Less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lowry’s farm淡藍色上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張純菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>540(打7折)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410 8折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦眼鏡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美少女眼藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mindy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>染髮筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茨城梅片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅子海苔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男梅糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵包超人眼藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小兵味覺糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拉熊一番賞毛巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角落生物杯緣子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫泉杯緣子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京牛奶起司工坊(海鹽起司夾心餅乾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京牛奶起司工坊(蜂蜜起司夾心餅乾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鹽起司&amp;蜂蜜起司禮盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎航免稅_OPI指甲油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600(台幣)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拉熊杯套*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMLO咬線器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭蛋(聯名款杯緣子)*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭蛋(青蛙家族)*7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常磐神社_合格鉛筆守*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常磐神社_交通安全守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常磐神社_朱印帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪肌粹洗面乳*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡丘一番賞G&amp;E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>皮卡丘一番賞G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>皮卡丘一番賞E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小艾Less</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白上衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白上衣黑色外掛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安伯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lowry’s farm淡藍色上衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯緣子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪肌粹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張純菱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拉雄一番賞毛巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胖貓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>540(打7折)</t>
+    <t>有型口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi Huei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宥蓁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERA 38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAMBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earth不規則裙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earth白色袖口蕾絲上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earth白短袖配深藍花色上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴下屋_FU蕾絲邊*2紫點點襪子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>酷企鵝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410 8折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擦眼鏡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美少女眼藥水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麵包超人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mindy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,12 +405,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -352,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +451,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,30 +738,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="V20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="A1:D1048576"/>
       <selection pane="topRight" activeCell="D1" sqref="A1:D1048576"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1048576"/>
-      <selection pane="bottomRight" activeCell="V32" sqref="V32"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="17" width="9" style="2" customWidth="1"/>
     <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
-    <col min="19" max="30" width="9" style="2" customWidth="1"/>
-    <col min="31" max="31" width="9" style="1"/>
+    <col min="19" max="33" width="9" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.28000000000000003</v>
       </c>
@@ -694,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
@@ -727,52 +820,61 @@
         <v>29</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="V1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -796,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -806,6 +908,9 @@
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D3" s="2">
+        <v>756</v>
+      </c>
       <c r="M3" s="2">
         <v>1</v>
       </c>
@@ -813,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -823,6 +928,9 @@
       <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D4" s="2">
+        <v>756</v>
+      </c>
       <c r="E4" s="2">
         <v>260</v>
       </c>
@@ -830,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -840,11 +948,14 @@
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D5" s="2">
+        <v>756</v>
+      </c>
       <c r="M5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -854,17 +965,20 @@
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D6" s="2">
+        <v>756</v>
+      </c>
       <c r="E6" s="2">
         <v>265</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -874,17 +988,20 @@
       <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D7" s="2">
+        <v>756</v>
+      </c>
       <c r="E7" s="2">
         <v>260</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
       </c>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -894,6 +1011,9 @@
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D8" s="2">
+        <v>1242</v>
+      </c>
       <c r="E8" s="2">
         <v>430</v>
       </c>
@@ -901,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -911,25 +1031,42 @@
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D9" s="2">
+        <v>239</v>
+      </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>4200</v>
       </c>
-      <c r="E10" s="2">
+      <c r="C10" s="4">
+        <v>1.012</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B10*C10</f>
+        <v>4250.3999999999996</v>
+      </c>
+      <c r="E10" s="4">
         <v>1425</v>
       </c>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F12" si="0">E10-(D10*$A$1)</f>
+        <v>234.88799999999992</v>
+      </c>
       <c r="Q10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -939,14 +1076,21 @@
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D11" s="2">
+        <v>5933</v>
+      </c>
       <c r="E11" s="2">
         <v>1760</v>
       </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>98.759999999999764</v>
+      </c>
       <c r="R11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -956,14 +1100,21 @@
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="2">
+        <v>4140</v>
+      </c>
       <c r="E12" s="2">
         <v>1280</v>
       </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>120.79999999999995</v>
+      </c>
       <c r="R12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -973,14 +1124,21 @@
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D13" s="2">
+        <v>4663</v>
+      </c>
       <c r="E13" s="2">
         <v>1490</v>
       </c>
+      <c r="F13" s="2">
+        <f>E13-(D13*$A$1)</f>
+        <v>184.3599999999999</v>
+      </c>
       <c r="S13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -990,20 +1148,36 @@
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D14" s="2">
+        <v>458</v>
+      </c>
+      <c r="E14" s="2">
+        <v>128</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
         <v>908</v>
       </c>
+      <c r="D15" s="2">
+        <v>908</v>
+      </c>
       <c r="E15" s="2">
         <v>330</v>
       </c>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:F17" si="1">E15-(D15*$A$1)</f>
+        <v>75.759999999999962</v>
+      </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
@@ -1011,51 +1185,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
         <v>1180</v>
       </c>
+      <c r="D16" s="2">
+        <v>1180</v>
+      </c>
       <c r="E16" s="2">
         <v>490</v>
       </c>
+      <c r="F16" s="2">
+        <f>E16-(D16*$A$1)</f>
+        <v>159.59999999999997</v>
+      </c>
       <c r="U16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2">
         <v>399</v>
       </c>
+      <c r="D17" s="2">
+        <v>399</v>
+      </c>
       <c r="E17" s="2">
         <v>160</v>
       </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>48.279999999999987</v>
+      </c>
       <c r="V17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2">
         <v>100</v>
       </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
       <c r="E18" s="2">
         <v>45</v>
       </c>
+      <c r="F18" s="2">
+        <f>E18-(D18*$A$1)</f>
+        <v>16.999999999999996</v>
+      </c>
       <c r="U18" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>920</v>
@@ -1063,16 +1258,23 @@
       <c r="C19" s="2">
         <v>0</v>
       </c>
+      <c r="D19" s="2">
+        <v>920</v>
+      </c>
       <c r="E19" s="2">
         <v>490</v>
       </c>
+      <c r="F19" s="2">
+        <f>E19-(D19*$A$1)</f>
+        <v>232.39999999999998</v>
+      </c>
       <c r="W19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2">
         <v>1018</v>
@@ -1080,16 +1282,23 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
+      <c r="D20" s="2">
+        <v>1018</v>
+      </c>
       <c r="E20" s="2">
         <v>550</v>
       </c>
+      <c r="F20" s="2">
+        <f t="shared" ref="F20:F27" si="2">E20-(D20*$A$1)</f>
+        <v>264.95999999999998</v>
+      </c>
       <c r="Z20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2">
         <v>1273</v>
@@ -1097,162 +1306,228 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
+      <c r="D21" s="2">
+        <v>1273</v>
+      </c>
       <c r="E21" s="2">
         <v>800</v>
       </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>443.55999999999995</v>
+      </c>
       <c r="AA21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2">
         <v>1458</v>
       </c>
+      <c r="D22" s="2">
+        <v>1458</v>
+      </c>
       <c r="E22" s="2">
         <v>534</v>
       </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>125.75999999999993</v>
+      </c>
       <c r="W22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2">
-        <v>670</v>
+        <v>1340</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1340</v>
       </c>
       <c r="E23" s="2">
-        <v>250</v>
+        <v>500</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>124.79999999999995</v>
       </c>
       <c r="W23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2">
         <v>670</v>
       </c>
+      <c r="D24" s="2">
+        <v>670</v>
+      </c>
       <c r="E24" s="2">
         <v>250</v>
       </c>
-      <c r="W24" s="2">
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>62.399999999999977</v>
+      </c>
+      <c r="Y24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2">
         <v>648</v>
       </c>
+      <c r="D25" s="2">
+        <v>648</v>
+      </c>
       <c r="E25" s="2">
         <v>240</v>
       </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>58.559999999999974</v>
+      </c>
       <c r="AA25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2">
         <v>574</v>
       </c>
+      <c r="D26" s="2">
+        <v>574</v>
+      </c>
       <c r="E26" s="2">
         <v>230</v>
       </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>69.279999999999973</v>
+      </c>
       <c r="AB26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2">
-        <v>648</v>
+        <v>1296</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
+      <c r="D27" s="2">
+        <v>1296</v>
+      </c>
       <c r="E27" s="2">
-        <v>250</v>
+        <v>500</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>137.11999999999995</v>
       </c>
       <c r="U27" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="A28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
         <v>140</v>
       </c>
+      <c r="F28" s="4"/>
       <c r="W28" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="A29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
         <v>190</v>
       </c>
+      <c r="F29" s="4"/>
       <c r="W29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2">
         <v>63</v>
       </c>
+      <c r="D30" s="2">
+        <v>58</v>
+      </c>
       <c r="E30" s="2">
         <v>35</v>
       </c>
+      <c r="F30" s="2">
+        <f>E30-(D30*$A$1)</f>
+        <v>18.759999999999998</v>
+      </c>
       <c r="AC30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2">
         <v>358</v>
       </c>
+      <c r="D31" s="2">
+        <v>358</v>
+      </c>
       <c r="E31" s="2">
         <v>150</v>
       </c>
+      <c r="F31" s="2">
+        <f t="shared" ref="F31" si="3">E31-(D31*$A$1)</f>
+        <v>49.759999999999991</v>
+      </c>
       <c r="AD31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2">
         <v>613</v>
@@ -1275,9 +1550,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2">
         <v>513</v>
@@ -1300,20 +1575,330 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2">
+        <v>105</v>
+      </c>
+      <c r="D34" s="2">
+        <v>105</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" ref="F34:F39" si="4">E34-(D34*$A$1)</f>
+        <v>15.599999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2">
+        <v>149</v>
+      </c>
+      <c r="D35" s="2">
+        <v>149</v>
+      </c>
+      <c r="E35" s="2">
+        <v>80</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="4"/>
+        <v>38.279999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2">
+        <v>192</v>
+      </c>
+      <c r="D36" s="2">
+        <v>192</v>
+      </c>
+      <c r="E36" s="2">
+        <v>100</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="4"/>
+        <v>46.239999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2">
+        <v>800</v>
+      </c>
+      <c r="D37" s="2">
+        <v>800</v>
+      </c>
+      <c r="E37" s="2">
+        <v>290</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="4"/>
+        <v>65.999999999999972</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2">
+        <v>850</v>
+      </c>
+      <c r="D38" s="2">
+        <v>850</v>
+      </c>
+      <c r="E38" s="2">
+        <v>310</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="4"/>
+        <v>71.999999999999972</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E39" s="2">
+        <v>590</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="4"/>
+        <v>85.999999999999943</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="2">
+        <v>600</v>
+      </c>
+      <c r="E40" s="2">
+        <v>660</v>
+      </c>
+      <c r="F40" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="2">
+        <v>560</v>
+      </c>
+      <c r="D41" s="2">
+        <v>560</v>
+      </c>
+      <c r="E41" s="2">
+        <v>240</v>
+      </c>
+      <c r="F41" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
+        <v>270</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>360</v>
+      </c>
+      <c r="F43" s="2">
+        <f>E43-(D43*$A$1)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2800</v>
+      </c>
+      <c r="E44" s="2">
+        <v>980</v>
+      </c>
+      <c r="F44" s="2">
+        <f>E44-(D44*$A$1)</f>
+        <v>195.99999999999989</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2">
+        <v>800</v>
+      </c>
+      <c r="D45" s="2">
+        <v>800</v>
+      </c>
+      <c r="E45" s="2">
+        <v>270</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" ref="F45:F49" si="5">E45-(D45*$A$1)</f>
+        <v>45.999999999999972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="2">
+        <v>540</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="5"/>
+        <v>91.999999999999943</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E47" s="2">
+        <v>420</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="D48" s="2">
+        <f>SUM(B48*C48)</f>
+        <v>1296</v>
+      </c>
+      <c r="E48" s="2">
+        <v>363</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1199999999999477</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1018</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1018</v>
+      </c>
+      <c r="E49" s="2">
+        <v>285</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000020464E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="2">
+        <f>SUM(F2:F48)</f>
+        <v>4199.7679999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F39" s="2"/>
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
